--- a/approaches/our_data/our_ground_truth/GitLab Commit API/request_response_constraints.xlsx
+++ b/approaches/our_data/our_ground_truth/GitLab Commit API/request_response_constraints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThacSi\API-Testing\Eval\our_data\our_ground_truth\GitLab Commit API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777E707E-04E0-493D-BC8C-A09F3C8D18CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D50E675-D443-4995-97FD-504FE59F661D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="23235" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="126">
   <si>
     <t>response resource</t>
   </si>
@@ -389,6 +389,18 @@
   </si>
   <si>
     <t>get-/projects/{id}/repository/commits/{sha}/merge_requests</t>
+  </si>
+  <si>
+    <t>with_issues_enabled</t>
+  </si>
+  <si>
+    <t>Limit by enabled issues feature</t>
+  </si>
+  <si>
+    <t>with_merge_requests_enabled</t>
+  </si>
+  <si>
+    <t>Limit by enabled merge requests feature</t>
   </si>
 </sst>
 </file>
@@ -751,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1869,6 +1881,52 @@
         <v>119</v>
       </c>
     </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>122</v>
+      </c>
+      <c r="G56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>124</v>
+      </c>
+      <c r="G57" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G55" xr:uid="{499700C8-E589-4A08-B3A3-437F49B3FE53}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G55">
